--- a/Project-Service-implementation-Script/Sample Templates/ProgramTemplate.xlsx
+++ b/Project-Service-implementation-Script/Sample Templates/ProgramTemplate.xlsx
@@ -224,7 +224,7 @@
     <t xml:space="preserve">projectService username/user id/email id/phone no. of Program Designer</t>
   </si>
   <si>
-    <t xml:space="preserve">Test_987</t>
+    <t xml:space="preserve">ddddddd</t>
   </si>
   <si>
     <t xml:space="preserve">tncontentcreator@yopmail.com</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">HT &amp; Officials</t>
   </si>
   <si>
-    <t xml:space="preserve">HM,DEO</t>
+    <t xml:space="preserve">district_education_officer</t>
   </si>
   <si>
     <t xml:space="preserve">16-04-2024</t>
@@ -265,13 +265,13 @@
 Note:  Please add comma if there are multiple values. Don't add blank/white space after comma. </t>
   </si>
   <si>
-    <t xml:space="preserve">Test_part1</t>
+    <t xml:space="preserve">VivekProject</t>
   </si>
   <si>
     <t xml:space="preserve">Improvement project</t>
   </si>
   <si>
-    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1kggwcmTn_0e9BFqB2T05SY4iymjYtLg8eWCbmRi-vGM/edit?gid=0#gid=0</t>
+    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Y5j6tn_Pgo5ZhcHshsLkCRQDGkgZ7GBmPnhfGELQ_EY/edit?gid=2076283661#gid=2076283661</t>
   </si>
   <si>
     <t xml:space="preserve">New Upload</t>
@@ -311,7 +311,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -402,6 +402,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="12">
@@ -534,7 +540,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -692,6 +698,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -786,7 +796,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.88"/>
@@ -1458,18 +1468,18 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.38"/>
@@ -1547,7 +1557,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="242.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
@@ -1608,17 +1618,17 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.63"/>
   </cols>
@@ -1677,7 +1687,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
@@ -1693,7 +1703,7 @@
       <c r="E3" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="40" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="37" t="s">
@@ -1719,7 +1729,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" location="gid=0" display="https://docs.google.com/spreadsheets/d/1kggwcmTn_0e9BFqB2T05SY4iymjYtLg8eWCbmRi-vGM/edit?gid=0#gid=0"/>
+    <hyperlink ref="C3" r:id="rId1" location="gid=2076283661" display="https://docs.google.com/spreadsheets/d/1Y5j6tn_Pgo5ZhcHshsLkCRQDGkgZ7GBmPnhfGELQ_EY/edit?gid=2076283661#gid=2076283661"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1742,7 +1752,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
@@ -1760,10 +1770,10 @@
       <c r="A2" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="3"/>
@@ -1772,7 +1782,7 @@
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="3"/>

--- a/Project-Service-implementation-Script/Sample Templates/ProgramTemplate.xlsx
+++ b/Project-Service-implementation-Script/Sample Templates/ProgramTemplate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t xml:space="preserve">Template Version : 5.1.0</t>
   </si>
@@ -224,13 +224,16 @@
     <t xml:space="preserve">projectService username/user id/email id/phone no. of Program Designer</t>
   </si>
   <si>
-    <t xml:space="preserve">ddddddd</t>
+    <t xml:space="preserve">Targeted entities at program level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProgramName</t>
   </si>
   <si>
     <t xml:space="preserve">tncontentcreator@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Andhra Pradesh</t>
+    <t xml:space="preserve">Jayanagar</t>
   </si>
   <si>
     <t xml:space="preserve">Test elevate_shiksha</t>
@@ -265,16 +268,19 @@
 Note:  Please add comma if there are multiple values. Don't add blank/white space after comma. </t>
   </si>
   <si>
-    <t xml:space="preserve">VivekProject</t>
+    <t xml:space="preserve">Cricket000</t>
   </si>
   <si>
     <t xml:space="preserve">Improvement project</t>
   </si>
   <si>
-    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Y5j6tn_Pgo5ZhcHshsLkCRQDGkgZ7GBmPnhfGELQ_EY/edit?gid=2076283661#gid=2076283661</t>
+    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/10STEIdqJuM03NzopGPHPcD74YBUE7IzMct5WfmvnwFM/edit?gid=2076283661#gid=2076283661</t>
   </si>
   <si>
     <t xml:space="preserve">New Upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">block_education_officer</t>
   </si>
   <si>
     <t xml:space="preserve">Login Id on projectService of the Program Manager.
@@ -311,7 +317,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -402,12 +408,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="12">
@@ -697,11 +697,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -796,7 +796,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.88"/>
@@ -1468,11 +1468,11 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
         <v>28</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>63</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>38</v>
@@ -1559,34 +1559,34 @@
     </row>
     <row r="3" customFormat="false" ht="242.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1615,13 +1615,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
@@ -1641,16 +1641,16 @@
         <v>17</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>31</v>
@@ -1688,31 +1688,32 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>77</v>
+      <c r="A3" s="39" t="s">
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="39" t="s">
         <v>79</v>
       </c>
+      <c r="C3" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="F3" s="35" t="s">
+        <v>82</v>
+      </c>
       <c r="G3" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="B3" type="list">
@@ -1729,7 +1730,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" location="gid=2076283661" display="https://docs.google.com/spreadsheets/d/1Y5j6tn_Pgo5ZhcHshsLkCRQDGkgZ7GBmPnhfGELQ_EY/edit?gid=2076283661#gid=2076283661"/>
+    <hyperlink ref="C3" r:id="rId1" location="gid=2076283661" display="https://docs.google.com/spreadsheets/d/10STEIdqJuM03NzopGPHPcD74YBUE7IzMct5WfmvnwFM/edit?gid=2076283661#gid=2076283661"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1752,58 +1753,58 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>

--- a/Project-Service-implementation-Script/Sample Templates/ProgramTemplate.xlsx
+++ b/Project-Service-implementation-Script/Sample Templates/ProgramTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t xml:space="preserve">Template Version : 5.1.0</t>
   </si>
@@ -236,6 +236,9 @@
     <t xml:space="preserve">Jayanagar</t>
   </si>
   <si>
+    <t xml:space="preserve">GOA,AP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test elevate_shiksha</t>
   </si>
   <si>
@@ -245,7 +248,7 @@
     <t xml:space="preserve">Regression</t>
   </si>
   <si>
-    <t xml:space="preserve">HT &amp; Officials</t>
+    <t xml:space="preserve">HM,DEO</t>
   </si>
   <si>
     <t xml:space="preserve">district_education_officer</t>
@@ -278,6 +281,9 @@
   </si>
   <si>
     <t xml:space="preserve">New Upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT &amp; Officials</t>
   </si>
   <si>
     <t xml:space="preserve">block_education_officer</t>
@@ -796,7 +802,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.88"/>
@@ -1468,11 +1474,11 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
@@ -1532,7 +1538,7 @@
         <v>64</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>40</v>
@@ -1567,26 +1573,29 @@
       <c r="C3" s="35" t="s">
         <v>67</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>68</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1617,11 +1626,11 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
@@ -1641,16 +1650,16 @@
         <v>17</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>31</v>
@@ -1689,28 +1698,28 @@
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1753,55 +1762,55 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>66</v>

--- a/Project-Service-implementation-Script/Sample Templates/ProgramTemplate.xlsx
+++ b/Project-Service-implementation-Script/Sample Templates/ProgramTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">Improvement project</t>
   </si>
   <si>
-    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/10STEIdqJuM03NzopGPHPcD74YBUE7IzMct5WfmvnwFM/edit?gid=2076283661#gid=2076283661</t>
+    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1XWRhWYWHUL_vAXIN3IvruntCbqAlow88G53wNADyDhw/edit?gid=2076283661#gid=2076283661</t>
   </si>
   <si>
     <t xml:space="preserve">New Upload</t>
@@ -802,7 +802,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.88"/>
@@ -1474,11 +1474,11 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
@@ -1626,11 +1626,11 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
         <v>79</v>
       </c>
@@ -1738,9 +1738,6 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" location="gid=2076283661" display="https://docs.google.com/spreadsheets/d/10STEIdqJuM03NzopGPHPcD74YBUE7IzMct5WfmvnwFM/edit?gid=2076283661#gid=2076283661"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1762,7 +1759,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">

--- a/Project-Service-implementation-Script/Sample Templates/ProgramTemplate.xlsx
+++ b/Project-Service-implementation-Script/Sample Templates/ProgramTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">Improvement project</t>
   </si>
   <si>
-    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1XWRhWYWHUL_vAXIN3IvruntCbqAlow88G53wNADyDhw/edit?gid=2076283661#gid=2076283661</t>
+    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/10STEIdqJuM03NzopGPHPcD74YBUE7IzMct5WfmvnwFM/edit?gid=2076283661#gid=2076283661</t>
   </si>
   <si>
     <t xml:space="preserve">New Upload</t>
@@ -802,7 +802,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.88"/>
@@ -1474,11 +1474,11 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
@@ -1626,11 +1626,11 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
         <v>79</v>
       </c>
@@ -1738,6 +1738,9 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" location="gid=2076283661" display="https://docs.google.com/spreadsheets/d/10STEIdqJuM03NzopGPHPcD74YBUE7IzMct5WfmvnwFM/edit?gid=2076283661#gid=2076283661"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1759,7 +1762,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">

--- a/Project-Service-implementation-Script/Sample Templates/ProgramTemplate.xlsx
+++ b/Project-Service-implementation-Script/Sample Templates/ProgramTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t xml:space="preserve">Template Version : 5.1.0</t>
   </si>
@@ -93,7 +93,7 @@
   </si>
   <si>
     <t xml:space="preserve">Select "Existing" if the Resource is already uploaded and mapped to the program. 
-Select "New Upload" if the Resource is Not uploaded to the Diksha Platform.</t>
+Select "New Upload" if the Resource is Not uploaded to the projectService Platform.</t>
   </si>
   <si>
     <t xml:space="preserve">Program Details</t>
@@ -123,10 +123,10 @@
     <t xml:space="preserve">Enter the start date of the resource in DD-MM-YYYY format</t>
   </si>
   <si>
-    <t xml:space="preserve">Diksha user id ( profile ID) of Program Designer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the Diksha username/user id/email id/phone no. of the Program Designer</t>
+    <t xml:space="preserve">projectService user id ( profile ID) of Program Designer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the projectService username/user id/email id/phone no. of the Program Designer</t>
   </si>
   <si>
     <t xml:space="preserve">End date of resource</t>
@@ -197,24 +197,21 @@
     <t xml:space="preserve">If the user is using SSO system to login, select YES else NO.</t>
   </si>
   <si>
-    <t xml:space="preserve">Login ID on DIKSHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login Id on DIKSHA of the Program Manager.
+    <t xml:space="preserve">Login ID on projectService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Id on projectService of the Program Manager.
 NOTE : Not required for SSO users</t>
   </si>
   <si>
-    <t xml:space="preserve">Diksha user id ( profile ID)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the Diksha username/user id.
+    <t xml:space="preserve">projectService user id ( profile ID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the projectService username/user id.
 Note: Mandatory for SSO user.</t>
   </si>
   <si>
     <t xml:space="preserve">A unique external id of the program, A unique external id of the program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the projectService username/user id/email id/phone no. of the Program Designer</t>
   </si>
   <si>
     <t xml:space="preserve">Mandatory if role selected as HT &amp; Officials. Define the sub-roles, who should access the form Ex: HM,DEO 
@@ -227,28 +224,25 @@
     <t xml:space="preserve">Targeted entities at program level</t>
   </si>
   <si>
-    <t xml:space="preserve">ProgramName</t>
+    <t xml:space="preserve">TestFlow888</t>
   </si>
   <si>
     <t xml:space="preserve">tncontentcreator@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Jayanagar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOA,AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test elevate_shiksha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The discipline studies the sound system of Sanskrit, including the rules governing the sounds and their combinations. It analyzes how sounds are produced and how they interact within the language.</t>
+    <t xml:space="preserve">Indiranagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promoting Engagement in Blended Learning for Underserved Communities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parents, many of whom are factory and daily wage workers, did not understand or value blended learning. When schools shut down in March 2020, parents assumed online classes were optional, which led to low attendance and increased dropouts. Even among attending students, engagement levels were low.</t>
   </si>
   <si>
     <t xml:space="preserve">Regression</t>
   </si>
   <si>
-    <t xml:space="preserve">HM,DEO</t>
+    <t xml:space="preserve">HT &amp; Officials</t>
   </si>
   <si>
     <t xml:space="preserve">district_education_officer</t>
@@ -261,49 +255,28 @@
   </si>
   <si>
     <t xml:space="preserve">Observation/Survey/Project - Please add the template link.(Sheet permission - set to be anyone with the link can view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select "Existing" if the Resource is already uploaded and mapped to the program. 
-Select "New Upload" if the Resource is Not uploaded to the projectService Platform.</t>
   </si>
   <si>
     <t xml:space="preserve">Mandatory if role selected as HT &amp; Officials. Define the sub-roles, who should access the form Ex:HM,DEO 
 Note:  Please add comma if there are multiple values. Don't add blank/white space after comma. </t>
   </si>
   <si>
-    <t xml:space="preserve">Cricket000</t>
+    <t xml:space="preserve">Project Name</t>
   </si>
   <si>
     <t xml:space="preserve">Improvement project</t>
   </si>
   <si>
-    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/10STEIdqJuM03NzopGPHPcD74YBUE7IzMct5WfmvnwFM/edit?gid=2076283661#gid=2076283661</t>
+    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/19nuaAgcoZTzLEapWbb-i3UEF9krLw0Kv-Uz7vR-piTI/edit?gid=2076283661#gid=2076283661</t>
   </si>
   <si>
     <t xml:space="preserve">New Upload</t>
   </si>
   <si>
-    <t xml:space="preserve">HT &amp; Officials</t>
-  </si>
-  <si>
     <t xml:space="preserve">block_education_officer</t>
   </si>
   <si>
-    <t xml:space="preserve">Login Id on projectService of the Program Manager.
-NOTE : Not required for SSO users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the projectService username/user id.
-Note: Mandatory for SSO user.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Is a SSO user?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login ID on projectService</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projectService user id ( profile ID)</t>
   </si>
   <si>
     <t xml:space="preserve">NO</t>
@@ -555,7 +528,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -571,7 +544,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -581,10 +554,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -651,7 +620,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -667,23 +636,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -691,7 +660,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -699,7 +672,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -711,11 +684,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -796,20 +769,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="0" width="12.88"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +816,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -897,40 +872,40 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -939,16 +914,16 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="16" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3"/>
@@ -959,16 +934,16 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="20" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="3"/>
@@ -979,16 +954,16 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="20" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="3"/>
@@ -999,16 +974,16 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="20" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="3"/>
@@ -1019,14 +994,14 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="3"/>
@@ -1038,15 +1013,15 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="3"/>
@@ -1057,18 +1032,18 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="20" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="3"/>
@@ -1079,40 +1054,40 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="3"/>
@@ -1123,14 +1098,14 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1141,14 +1116,14 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1159,14 +1134,14 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1177,14 +1152,14 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1195,14 +1170,14 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1213,14 +1188,14 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1231,32 +1206,32 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1267,14 +1242,14 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1285,10 +1260,10 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1299,12 +1274,12 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27" t="s">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1315,14 +1290,14 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="25" t="s">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1333,14 +1308,14 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="s">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1351,14 +1326,14 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="s">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="12"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1369,14 +1344,14 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="s">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1387,7 +1362,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1401,21 +1376,21 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1429,20 +1404,984 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
     </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A2:E2"/>
@@ -1472,132 +2411,1131 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="12.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="12" style="0" width="12.88"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="31" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="242.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="C3" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="D3" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="H3" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="J3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="K3" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>75</v>
-      </c>
     </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C3" type="list">
@@ -1624,13 +3562,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
@@ -1640,37 +3578,38 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="12.88"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>35</v>
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -1682,47 +3621,1043 @@
       <c r="D2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>84</v>
-      </c>
       <c r="G3" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="B3" type="list">
@@ -1738,9 +4673,6 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" location="gid=2076283661" display="https://docs.google.com/spreadsheets/d/10STEIdqJuM03NzopGPHPcD74YBUE7IzMct5WfmvnwFM/edit?gid=2076283661#gid=2076283661"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1756,68 +4688,1066 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="12.88"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>86</v>
+      <c r="B1" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>66</v>
+        <v>82</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>65</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A3:A5" type="list">

--- a/Project-Service-implementation-Script/Sample Templates/ProgramTemplate.xlsx
+++ b/Project-Service-implementation-Script/Sample Templates/ProgramTemplate.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Program Details" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Resource Details" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Program Manager Details" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Instructions" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Program Details" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Resource Details" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Program Manager Details" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t xml:space="preserve">Template Version : 5.1.0</t>
   </si>
@@ -221,6 +221,12 @@
     <t xml:space="preserve">projectService username/user id/email id/phone no. of Program Designer</t>
   </si>
   <si>
+    <t xml:space="preserve">Tenant ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Org ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">Targeted entities at program level</t>
   </si>
   <si>
@@ -228,6 +234,9 @@
   </si>
   <si>
     <t xml:space="preserve">tncontentcreator@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
   </si>
   <si>
     <t xml:space="preserve">Indiranagar</t>
@@ -292,9 +301,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="mm\-dd\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -519,176 +529,180 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -764,8 +778,114 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -777,646 +897,646 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="0" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="60.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="6" style="1" width="12.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="19" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="19" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="19" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2407,136 +2527,150 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1000"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="12" style="0" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="14" style="1" width="12.88"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+    <row r="1" customFormat="false" ht="103.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="G1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="J1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="L1" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="M1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="N1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+    <row r="2" customFormat="false" ht="108.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="G2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="H2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="I2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="J2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="K2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="L2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="M2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="N2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="34" t="s">
+    <row r="3" customFormat="false" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="B3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="34" t="n">
+        <v>24</v>
+      </c>
       <c r="D3" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="36" t="s">
         <v>69</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="H3" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="34" t="s">
         <v>71</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="J3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="34" t="s">
         <v>73</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3538,11 +3672,11 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E3" type="list">
       <formula1>"Andaman &amp; Nicobar Islands,Andhra Pradesh,Arunachal Pradesh,Assam,Bihar,Chandigarh,Chhattisgarh,Dadra and Nagar Haveli and Daman and Diu,Delhi,Goa,Gujarat,Haryana,Himachal Pradesh,Jammu And Kashmir,Jharkhand,Karnataka,Kerala,Ladakh,Lakshadweep,Madhya Prade"&amp;"sh,Maharashtra,Manipur,Meghalaya,Mizoram,Nagaland,Odisha,Puducherry,Punjab,Rajasthan,Sikkim,Tamil Nadu,Telangana,Tripura,Uttar Pradesh,Uttarakhand,West Bengal"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J3" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3558,107 +3692,107 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="1" width="12.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4684,7 +4818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4696,62 +4830,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="1" width="12.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
